--- a/ApolloQA/Data/RatingManual/MO/VA00058.FleetSize_InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/MO/VA00058.FleetSize_InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.FleetSize_InsuranceScoreTierFactors" sheetId="1" r:id="R4f48d8e657544155"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.FleetSize_InsuranceScoreTierFactors" sheetId="1" r:id="Rf43b2ef4dbd74e23"/>
   </x:sheets>
 </x:workbook>
 </file>
